--- a/LSL/AIM/Gap Regsiter_Sathosa_v2.0.xlsx
+++ b/LSL/AIM/Gap Regsiter_Sathosa_v2.0.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$M$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$M$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="104">
   <si>
     <t>GAP REGISTER</t>
   </si>
@@ -907,9 +907,6 @@
     <t>Procurement DGMs and Managers</t>
   </si>
   <si>
-    <t>fix the responsibilities from Sathosa Finance</t>
-  </si>
-  <si>
     <t>Outlet level services from PBSA POS for asset related expenses</t>
   </si>
   <si>
@@ -919,7 +916,34 @@
     <t>Oracle Documentation with workflows</t>
   </si>
   <si>
-    <t>Oracle EBS process related user guide has to be shared</t>
+    <t>Oracle EBS process related user guide has to be shared-done and UAT scripts are align to them</t>
+  </si>
+  <si>
+    <t>fix the responsibilities from Sathosa Finance-need to confirm from management and matrix is initiated in system</t>
+  </si>
+  <si>
+    <t>APEX server have alternatives and need their requirements on Dashboards</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>IT\Networking</t>
+  </si>
+  <si>
+    <t>15/10/18</t>
+  </si>
+  <si>
+    <t>IT\KPMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSO login for Oracle ERP and related APEX developed (TBD) </t>
+  </si>
+  <si>
+    <t>Sathosa and KPMG Tech\DBA</t>
+  </si>
+  <si>
+    <t>Overview of Single Sign-On Integration Options for Oracle E-Business Suite (Doc ID 1388152.1)</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1416,21 +1440,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1445,13 +1454,51 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="95">
     <dxf>
       <fill>
         <patternFill>
@@ -1553,20 +1600,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor indexed="43"/>
         </patternFill>
       </fill>
@@ -1609,6 +1642,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor indexed="43"/>
         </patternFill>
       </fill>
@@ -1651,20 +1698,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor indexed="43"/>
         </patternFill>
       </fill>
@@ -1756,13 +1789,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor indexed="43"/>
         </patternFill>
       </fill>
@@ -1792,6 +1818,111 @@
       <fill>
         <patternFill>
           <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2309,10 +2440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,16 +2477,16 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
       <c r="I2" s="8"/>
@@ -2364,16 +2496,16 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="50" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="8"/>
@@ -2383,16 +2515,16 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="50" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="8"/>
@@ -2402,16 +2534,16 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53">
         <v>1500001</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="8"/>
@@ -2420,7 +2552,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
@@ -2498,7 +2630,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>19</v>
       </c>
@@ -2537,7 +2669,7 @@
       </c>
       <c r="M8" s="31"/>
     </row>
-    <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>21</v>
       </c>
@@ -2580,25 +2712,25 @@
     </row>
     <row r="10" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="22">
         <v>43348</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>26</v>
@@ -2609,24 +2741,22 @@
       <c r="J10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="38" t="s">
-        <v>44</v>
-      </c>
+      <c r="K10" s="41"/>
       <c r="L10" s="37"/>
-      <c r="M10" s="31"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="22">
-        <v>43348</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>26</v>
+      <c r="A11" s="20">
+        <v>14</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>90</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>73</v>
@@ -2635,70 +2765,72 @@
         <v>22</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>26</v>
+        <v>88</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="I11" s="32">
-        <v>43374</v>
+        <v>43406</v>
       </c>
       <c r="J11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="42"/>
+      <c r="K11" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="46"/>
+      <c r="M11" s="64"/>
     </row>
     <row r="12" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="22">
-        <v>43348</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>26</v>
+      <c r="A12" s="43">
+        <v>16</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>90</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>26</v>
+        <v>93</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="I12" s="32">
-        <v>43374</v>
+        <v>43406</v>
       </c>
       <c r="J12" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="45"/>
+      <c r="K12" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="46"/>
+      <c r="M12" s="61"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" s="22">
         <v>43348</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>18</v>
@@ -2707,7 +2839,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H13" s="40" t="s">
         <v>26</v>
@@ -2718,11 +2850,13 @@
       <c r="J13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="41"/>
+      <c r="K13" s="38" t="s">
+        <v>44</v>
+      </c>
       <c r="L13" s="32"/>
-      <c r="M13" s="45"/>
+      <c r="M13" s="65"/>
     </row>
-    <row r="14" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>46</v>
       </c>
@@ -2761,7 +2895,7 @@
       </c>
       <c r="M14" s="45"/>
     </row>
-    <row r="15" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>52</v>
       </c>
@@ -2798,7 +2932,7 @@
       <c r="L15" s="32"/>
       <c r="M15" s="45"/>
     </row>
-    <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>56</v>
       </c>
@@ -2837,7 +2971,7 @@
       </c>
       <c r="M16" s="45"/>
     </row>
-    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>63</v>
       </c>
@@ -2876,7 +3010,7 @@
       </c>
       <c r="M17" s="45"/>
     </row>
-    <row r="18" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>67</v>
       </c>
@@ -2916,155 +3050,202 @@
       <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:13" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
-        <v>13</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="54" t="s">
+      <c r="A19" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="32">
+        <v>43348</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="39" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>86</v>
+        <v>38</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>26</v>
       </c>
       <c r="I19" s="32">
-        <v>43406</v>
+        <v>43374</v>
       </c>
       <c r="J19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="56" t="s">
-        <v>87</v>
+      <c r="K19" s="63" t="s">
+        <v>57</v>
       </c>
       <c r="L19" s="32"/>
-      <c r="M19" s="51"/>
+      <c r="M19" s="40"/>
     </row>
-    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
-        <v>14</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="54" t="s">
+    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="32">
+        <v>43348</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="39" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="55" t="s">
-        <v>86</v>
+        <v>40</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>26</v>
       </c>
       <c r="I20" s="32">
-        <v>43406</v>
+        <v>43374</v>
       </c>
       <c r="J20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
+      <c r="K20" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="32"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="1:13" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A21" s="43">
-        <v>15</v>
-      </c>
-      <c r="B21" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="47" t="s">
         <v>83</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="54" t="s">
+      <c r="D21" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="49" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="39" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="50" t="s">
         <v>86</v>
       </c>
       <c r="I21" s="32">
-        <v>43450</v>
+        <v>43406</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="K21" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="32"/>
+      <c r="M21" s="46"/>
     </row>
-    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A22" s="43">
-        <v>16</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>89</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>83</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="49" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="39" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="50" t="s">
         <v>86</v>
       </c>
       <c r="I22" s="32">
-        <v>43406</v>
+        <v>43450</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
+      <c r="K22" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="1:13" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="32">
+        <v>43449</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:M6"/>
+  <autoFilter ref="A6:M23">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Open"/>
+        <filter val="Work In Progress"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A7:M23">
+      <sortCondition descending="1" ref="E6:E23"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
@@ -3076,198 +3257,225 @@
     <mergeCell ref="D4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="F1 E6:F10 E14:F18 F11 E19">
-    <cfRule type="cellIs" dxfId="82" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="72" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="73" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="74" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1 J6:J10 J14:J17">
-    <cfRule type="cellIs" dxfId="79" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="75" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="78" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="69" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="70" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="71" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="75" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="68" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="74" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="67" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="73" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="66" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="72" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="65" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="71" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="62" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="63" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="64" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="68" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="61" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="67" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="58" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="59" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="60" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="64" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="55" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="56" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="57" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="61" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="54" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="60" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="51" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="52" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="53" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="57" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="48" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="49" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="50" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="54" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="47" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="53" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="46" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="49" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="43" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="44" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="45" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="61" priority="42" stopIfTrue="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="57" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="cellIs" dxfId="54" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="53" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="33" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="50" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="cellIs" dxfId="47" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
     <cfRule type="cellIs" dxfId="43" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="cellIs" dxfId="40" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="39" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="41" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="35" priority="16" stopIfTrue="1" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="17" stopIfTrue="1" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="18" stopIfTrue="1" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="27" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="13" stopIfTrue="1" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -3278,7 +3486,7 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="F23">
     <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -3289,23 +3497,24 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J23">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E18 E22 E20">
       <formula1>"Open,Work In Progress,Closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F23">
       <formula1>"Critical,High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J23">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>